--- a/Data/Data.xlsx
+++ b/Data/Data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\Visual Studio\Commodore-Repair-Toolbox\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\Visual Studio\Commodore-Repair-Toolbox\bin\Debug\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFB8CE6E-C38B-45F1-AFEC-BB72557AD5C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B6D84E6-E265-46A9-A199-E1306DCE365F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t># Commodore Repair Toolbox</t>
   </si>
@@ -50,12 +50,6 @@
     <t>Commodore 64 model C</t>
   </si>
   <si>
-    <t>Commodore 128</t>
-  </si>
-  <si>
-    <t>Commodore 128D</t>
-  </si>
-  <si>
     <t>Folder name</t>
   </si>
   <si>
@@ -63,12 +57,6 @@
   </si>
   <si>
     <t>Commodore 64C</t>
-  </si>
-  <si>
-    <t>C128</t>
-  </si>
-  <si>
-    <t>C128D</t>
   </si>
   <si>
     <t>"Hardware" name in drop-down</t>
@@ -448,7 +436,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -468,44 +456,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="1" t="s">
+    <row r="2" spans="1:2" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:2" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>7</v>
+      <c r="B5" s="3" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Data.xlsx
+++ b/Data/Data.xlsx
@@ -1,22 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\Visual Studio\Commodore-Repair-Toolbox\bin\Debug\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B6D84E6-E265-46A9-A199-E1306DCE365F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8138B6F-03EA-4060-9460-69A7AF56C4E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
   </bookViews>
   <sheets>
-    <sheet name="Main" sheetId="1" r:id="rId1"/>
-    <sheet name="Trivia" sheetId="2" r:id="rId2"/>
-    <sheet name="Troubleshooting" sheetId="3" r:id="rId3"/>
-    <sheet name="Links" sheetId="4" r:id="rId4"/>
+    <sheet name="Hardware" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t># Commodore Repair Toolbox</t>
   </si>
@@ -59,7 +56,16 @@
     <t>Commodore 64C</t>
   </si>
   <si>
-    <t>"Hardware" name in drop-down</t>
+    <t>Hardware name in drop-down</t>
+  </si>
+  <si>
+    <t>Data file</t>
+  </si>
+  <si>
+    <t>Data_Breadbin.xlsx</t>
+  </si>
+  <si>
+    <t>Data model C.xlsx</t>
   </si>
 </sst>
 </file>
@@ -108,7 +114,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -118,6 +124,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -433,17 +442,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1251FF9-425C-410E-B269-C7726F9C2504}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="38" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="8.88671875" style="1"/>
+    <col min="3" max="3" width="19.21875" style="1" customWidth="1"/>
+    <col min="4" max="5" width="8.88671875" style="1"/>
     <col min="6" max="6" width="19.33203125" style="1" customWidth="1"/>
     <col min="7" max="7" width="55.5546875" style="1" customWidth="1"/>
     <col min="8" max="8" width="24.33203125" style="1" customWidth="1"/>
@@ -451,75 +461,47 @@
     <col min="10" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:2" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+    <row r="2" spans="1:3" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
+      <c r="C3" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="C4" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>5</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25B86F22-EFC1-43D5-B548-DDEDDDBE5E13}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1519DFCC-A664-4B71-859C-4D1D578ADE04}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FF6E09E-B5BF-4B73-B79A-A473EDB66B5F}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Data/Data.xlsx
+++ b/Data/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\Visual Studio\Commodore-Repair-Toolbox\bin\Debug\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8138B6F-03EA-4060-9460-69A7AF56C4E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AF33A69-881B-4812-B98F-328A38039CB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Hardware" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t># Commodore Repair Toolbox</t>
   </si>
@@ -44,18 +44,12 @@
     <t>Commodore 64 (Breadbin)</t>
   </si>
   <si>
-    <t>Commodore 64 model C</t>
-  </si>
-  <si>
     <t>Folder name</t>
   </si>
   <si>
     <t>Commodore 64 Breadbin</t>
   </si>
   <si>
-    <t>Commodore 64C</t>
-  </si>
-  <si>
     <t>Hardware name in drop-down</t>
   </si>
   <si>
@@ -65,14 +59,17 @@
     <t>Data_Breadbin.xlsx</t>
   </si>
   <si>
-    <t>Data model C.xlsx</t>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>Data_Test.xlsx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -87,6 +84,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -97,7 +101,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -122,11 +126,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -444,15 +448,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1251FF9-425C-410E-B269-C7726F9C2504}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="38" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.21875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28.88671875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="36.44140625" style="1" customWidth="1"/>
     <col min="4" max="5" width="8.88671875" style="1"/>
     <col min="6" max="6" width="19.33203125" style="1" customWidth="1"/>
     <col min="7" max="7" width="55.5546875" style="1" customWidth="1"/>
@@ -468,14 +470,14 @@
     </row>
     <row r="2" spans="1:3" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>7</v>
+      <c r="A3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -483,21 +485,21 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>8</v>
+        <v>3</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Data.xlsx
+++ b/Data/Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\Visual Studio\Commodore-Repair-Toolbox\bin\Debug\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AF33A69-881B-4812-B98F-328A38039CB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E0E6ED5-1291-438A-B3C3-C27B56F71C4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="10044" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Hardware" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t># Commodore Repair Toolbox</t>
   </si>
@@ -63,6 +61,15 @@
   </si>
   <si>
     <t>Data_Test.xlsx</t>
+  </si>
+  <si>
+    <t>Commodore 64 (C model)</t>
+  </si>
+  <si>
+    <t>Commodore 64 C</t>
+  </si>
+  <si>
+    <t>Data_C.xlsx</t>
   </si>
 </sst>
 </file>
@@ -446,9 +453,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1251FF9-425C-410E-B269-C7726F9C2504}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -493,12 +502,23 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>8</v>
       </c>
     </row>

--- a/Data/Data.xlsx
+++ b/Data/Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\Visual Studio\Commodore-Repair-Toolbox\bin\Debug\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\Visual Studio\Commodore-Repair-Toolbox\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E0E6ED5-1291-438A-B3C3-C27B56F71C4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B084EC94-DD23-45D6-97EA-9DF5A79A01F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="10044" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Hardware" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t># Commodore Repair Toolbox</t>
   </si>
@@ -70,6 +70,12 @@
   </si>
   <si>
     <t>Data_C.xlsx</t>
+  </si>
+  <si>
+    <t>Commodore 128 (D)</t>
+  </si>
+  <si>
+    <t>Data_C128.xlsx</t>
   </si>
 </sst>
 </file>
@@ -453,10 +459,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1251FF9-425C-410E-B269-C7726F9C2504}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -513,12 +519,23 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>8</v>
       </c>
     </row>

--- a/Data/Data.xlsx
+++ b/Data/Data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\Visual Studio\Commodore-Repair-Toolbox\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\Visual Studio\Commodore-Repair-Toolbox\bin\Debug\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B084EC94-DD23-45D6-97EA-9DF5A79A01F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A7768F5-E45E-442C-87F3-27D01B3DE038}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t># Commodore Repair Toolbox</t>
   </si>
@@ -72,10 +72,13 @@
     <t>Data_C.xlsx</t>
   </si>
   <si>
-    <t>Commodore 128 (D)</t>
-  </si>
-  <si>
     <t>Data_C128.xlsx</t>
+  </si>
+  <si>
+    <t>Commodore 128</t>
+  </si>
+  <si>
+    <t>Commodore 128 (and 128D)</t>
   </si>
 </sst>
 </file>
@@ -461,9 +464,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1251FF9-425C-410E-B269-C7726F9C2504}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -519,13 +520,13 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">

--- a/Data/Data.xlsx
+++ b/Data/Data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\Visual Studio\Commodore-Repair-Toolbox\bin\Debug\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A7768F5-E45E-442C-87F3-27D01B3DE038}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37CB22CD-AD10-46DB-97E2-250BCF62F6BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
   </bookViews>
@@ -34,51 +34,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t># Commodore Repair Toolbox</t>
   </si>
   <si>
-    <t>Commodore 64 (Breadbin)</t>
-  </si>
-  <si>
     <t>Folder name</t>
   </si>
   <si>
-    <t>Commodore 64 Breadbin</t>
-  </si>
-  <si>
     <t>Hardware name in drop-down</t>
   </si>
   <si>
     <t>Data file</t>
   </si>
   <si>
-    <t>Data_Breadbin.xlsx</t>
+    <t>Data_C128.xlsx</t>
+  </si>
+  <si>
+    <t>Commodore 128</t>
+  </si>
+  <si>
+    <t>Commodore 128 (and 128D)</t>
+  </si>
+  <si>
+    <t>Test Pattern</t>
   </si>
   <si>
     <t>Test</t>
   </si>
   <si>
     <t>Data_Test.xlsx</t>
-  </si>
-  <si>
-    <t>Commodore 64 (C model)</t>
-  </si>
-  <si>
-    <t>Commodore 64 C</t>
-  </si>
-  <si>
-    <t>Data_C.xlsx</t>
-  </si>
-  <si>
-    <t>Data_C128.xlsx</t>
-  </si>
-  <si>
-    <t>Commodore 128</t>
-  </si>
-  <si>
-    <t>Commodore 128 (and 128D)</t>
   </si>
 </sst>
 </file>
@@ -462,7 +447,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1251FF9-425C-410E-B269-C7726F9C2504}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -487,57 +472,35 @@
     <row r="2" spans="1:3" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
